--- a/data/trans_orig/P36B06-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B06-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A01AF67-B5DB-4E1E-BF9B-86454285823B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2866F668-A3A2-44E6-A463-6521AC8DAB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6456C120-E1F6-4317-B429-FB141353E95D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F15D4336-C761-4984-AEC0-98CD6E928CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="1046">
   <si>
     <t>Población según la frecuencia de consumo de fruta fresca en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -1270,7 +1270,130 @@
     <t>Población según la frecuencia de consumo de fruta fresca en 2012 (Tasa respuesta: 99,83%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
   </si>
   <si>
     <t>3,4%</t>
@@ -1522,1401 +1645,1380 @@
     <t>79,55%</t>
   </si>
   <si>
-    <t>4,62%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de fruta fresca en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
   </si>
   <si>
     <t>3,17%</t>
   </si>
   <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de fruta fresca en 2016 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>10,56%</t>
-  </si>
-  <si>
     <t>8,39%</t>
   </si>
   <si>
@@ -2989,9 +3091,6 @@
     <t>53,51%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
     <t>1,58%</t>
   </si>
   <si>
@@ -3011,9 +3110,6 @@
   </si>
   <si>
     <t>3,53%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
   </si>
   <si>
     <t>13,59%</t>
@@ -3491,7 +3587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E58971-D239-4D84-A90A-33857E31ACAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE8F068-A2B7-403A-BD2A-3F282E71638F}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -6399,7 +6495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6291FB65-3623-4512-B394-A3065D884480}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FC7FED-7903-47C8-A22F-051834F5DDF4}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6517,43 +6613,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="D4" s="7">
+        <v>21431</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>410</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>410</v>
+        <v>116</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="I4" s="7">
+        <v>24991</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="N4" s="7">
+        <v>46422</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6562,43 +6664,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D5" s="7">
+        <v>21835</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="I5" s="7">
+        <v>11943</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>410</v>
+        <v>66</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="N5" s="7">
+        <v>33778</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6607,43 +6715,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D6" s="7">
+        <v>31218</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="I6" s="7">
+        <v>27179</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="N6" s="7">
+        <v>58397</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>410</v>
+        <v>305</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,43 +6766,49 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D7" s="7">
+        <v>34440</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="I7" s="7">
+        <v>30106</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="N7" s="7">
+        <v>64546</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>410</v>
+        <v>441</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>410</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,43 +6817,49 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>176</v>
+      </c>
+      <c r="D8" s="7">
+        <v>185814</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>171</v>
+      </c>
+      <c r="I8" s="7">
+        <v>190787</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>410</v>
+        <v>448</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>347</v>
+      </c>
+      <c r="N8" s="7">
+        <v>376602</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>410</v>
+        <v>449</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>410</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,43 +6868,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D9" s="7">
+        <v>294738</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>254</v>
+      </c>
+      <c r="I9" s="7">
+        <v>285006</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>536</v>
+      </c>
+      <c r="N9" s="7">
+        <v>579744</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>410</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6795,13 +6927,13 @@
         <v>17160</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>411</v>
+        <v>452</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>412</v>
+        <v>453</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>413</v>
+        <v>454</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -6810,13 +6942,13 @@
         <v>14762</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>414</v>
+        <v>455</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -6825,13 +6957,13 @@
         <v>31922</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>419</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,13 +6978,13 @@
         <v>15926</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>421</v>
+        <v>462</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -6861,13 +6993,13 @@
         <v>14742</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>423</v>
+        <v>464</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>424</v>
+        <v>465</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>425</v>
+        <v>466</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -6876,13 +7008,13 @@
         <v>30668</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>426</v>
+        <v>467</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>371</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>427</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6897,13 +7029,13 @@
         <v>41167</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>428</v>
+        <v>469</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>429</v>
+        <v>470</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>430</v>
+        <v>471</v>
       </c>
       <c r="H12" s="7">
         <v>33</v>
@@ -6912,13 +7044,13 @@
         <v>34193</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>432</v>
+        <v>473</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>433</v>
+        <v>474</v>
       </c>
       <c r="M12" s="7">
         <v>71</v>
@@ -6927,13 +7059,13 @@
         <v>75359</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>434</v>
+        <v>475</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>435</v>
+        <v>476</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>436</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6948,13 +7080,13 @@
         <v>107343</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="H13" s="7">
         <v>112</v>
@@ -6963,13 +7095,13 @@
         <v>124811</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>440</v>
+        <v>481</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>441</v>
+        <v>482</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>442</v>
+        <v>483</v>
       </c>
       <c r="M13" s="7">
         <v>213</v>
@@ -6978,13 +7110,13 @@
         <v>232153</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>443</v>
+        <v>484</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>444</v>
+        <v>485</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>445</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6999,13 +7131,13 @@
         <v>322892</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>446</v>
+        <v>487</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>447</v>
+        <v>488</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>448</v>
+        <v>489</v>
       </c>
       <c r="H14" s="7">
         <v>307</v>
@@ -7014,13 +7146,13 @@
         <v>335258</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>450</v>
+        <v>491</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>451</v>
+        <v>492</v>
       </c>
       <c r="M14" s="7">
         <v>605</v>
@@ -7029,13 +7161,13 @@
         <v>658150</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>452</v>
+        <v>493</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>453</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7103,13 +7235,13 @@
         <v>952</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>454</v>
+        <v>495</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -7118,13 +7250,13 @@
         <v>2947</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>456</v>
+        <v>497</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>457</v>
+        <v>498</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -7133,10 +7265,10 @@
         <v>3899</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>458</v>
+        <v>499</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>459</v>
+        <v>500</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>370</v>
@@ -7154,13 +7286,13 @@
         <v>7732</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>460</v>
+        <v>501</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>461</v>
+        <v>502</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -7169,13 +7301,13 @@
         <v>1919</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>464</v>
+        <v>505</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -7187,10 +7319,10 @@
         <v>164</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>465</v>
+        <v>506</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>466</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7205,13 +7337,13 @@
         <v>29888</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>467</v>
+        <v>508</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>468</v>
+        <v>509</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>469</v>
+        <v>510</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -7220,13 +7352,13 @@
         <v>18885</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>470</v>
+        <v>511</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>471</v>
+        <v>512</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>472</v>
+        <v>513</v>
       </c>
       <c r="M18" s="7">
         <v>49</v>
@@ -7235,13 +7367,13 @@
         <v>48773</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>473</v>
+        <v>514</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>474</v>
+        <v>515</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>475</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7256,13 +7388,13 @@
         <v>60671</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>476</v>
+        <v>517</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>477</v>
+        <v>518</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>478</v>
+        <v>519</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -7271,13 +7403,13 @@
         <v>33560</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>479</v>
+        <v>520</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>480</v>
+        <v>521</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>481</v>
+        <v>522</v>
       </c>
       <c r="M19" s="7">
         <v>91</v>
@@ -7286,13 +7418,13 @@
         <v>94231</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>482</v>
+        <v>523</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>483</v>
+        <v>524</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>484</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7307,13 +7439,13 @@
         <v>224803</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>485</v>
+        <v>526</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>486</v>
+        <v>527</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>487</v>
+        <v>528</v>
       </c>
       <c r="H20" s="7">
         <v>264</v>
@@ -7322,13 +7454,13 @@
         <v>282723</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>488</v>
+        <v>529</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>489</v>
+        <v>530</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>490</v>
+        <v>531</v>
       </c>
       <c r="M20" s="7">
         <v>482</v>
@@ -7337,13 +7469,13 @@
         <v>507525</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>491</v>
+        <v>532</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>492</v>
+        <v>533</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>493</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7405,49 +7537,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>30907</v>
+        <v>9476</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>495</v>
+        <v>536</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>496</v>
+        <v>537</v>
       </c>
       <c r="H22" s="7">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="I22" s="7">
-        <v>30044</v>
+        <v>5053</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>497</v>
+        <v>168</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>417</v>
+        <v>538</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>498</v>
+        <v>539</v>
       </c>
       <c r="M22" s="7">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="N22" s="7">
-        <v>60950</v>
+        <v>14528</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>499</v>
+        <v>540</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>500</v>
+        <v>541</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>501</v>
+        <v>542</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7456,49 +7588,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D23" s="7">
-        <v>37785</v>
+        <v>15950</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>502</v>
+        <v>543</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>503</v>
+        <v>372</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>504</v>
+        <v>544</v>
       </c>
       <c r="H23" s="7">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I23" s="7">
-        <v>19800</v>
+        <v>7858</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>505</v>
+        <v>545</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>541</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>506</v>
+        <v>546</v>
       </c>
       <c r="M23" s="7">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="N23" s="7">
-        <v>57585</v>
+        <v>23808</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>507</v>
+        <v>547</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>508</v>
+        <v>299</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>509</v>
+        <v>548</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,49 +7639,49 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="D24" s="7">
-        <v>71831</v>
+        <v>40613</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>510</v>
+        <v>549</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>511</v>
+        <v>550</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>512</v>
+        <v>84</v>
       </c>
       <c r="H24" s="7">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="I24" s="7">
-        <v>42444</v>
+        <v>15264</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>245</v>
+        <v>551</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="M24" s="7">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="N24" s="7">
-        <v>114275</v>
+        <v>55878</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>514</v>
+        <v>553</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>554</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>515</v>
+        <v>555</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,49 +7690,49 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="D25" s="7">
-        <v>119283</v>
+        <v>84843</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>516</v>
+        <v>556</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>517</v>
+        <v>557</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>518</v>
+        <v>558</v>
       </c>
       <c r="H25" s="7">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="I25" s="7">
-        <v>95688</v>
+        <v>65582</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>519</v>
+        <v>559</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>521</v>
+        <v>271</v>
       </c>
       <c r="M25" s="7">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="N25" s="7">
-        <v>214971</v>
+        <v>150425</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>522</v>
+        <v>561</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>523</v>
+        <v>562</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>524</v>
+        <v>563</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7609,49 +7741,49 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>382</v>
+        <v>206</v>
       </c>
       <c r="D26" s="7">
-        <v>408915</v>
+        <v>223100</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>525</v>
+        <v>564</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>404</v>
+        <v>565</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>526</v>
+        <v>566</v>
       </c>
       <c r="H26" s="7">
-        <v>453</v>
+        <v>282</v>
       </c>
       <c r="I26" s="7">
-        <v>485982</v>
+        <v>295194</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>527</v>
+        <v>567</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>528</v>
+        <v>568</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>529</v>
+        <v>569</v>
       </c>
       <c r="M26" s="7">
-        <v>835</v>
+        <v>488</v>
       </c>
       <c r="N26" s="7">
-        <v>894897</v>
+        <v>518294</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>530</v>
+        <v>570</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>531</v>
+        <v>571</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>532</v>
+        <v>572</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7660,10 +7792,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D27" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -7675,10 +7807,10 @@
         <v>60</v>
       </c>
       <c r="H27" s="7">
-        <v>625</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>673957</v>
+        <v>388951</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -7690,10 +7822,10 @@
         <v>60</v>
       </c>
       <c r="M27" s="7">
-        <v>1251</v>
+        <v>715</v>
       </c>
       <c r="N27" s="7">
-        <v>1342678</v>
+        <v>762933</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -7719,13 +7851,13 @@
         <v>9040</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>533</v>
+        <v>573</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>534</v>
+        <v>574</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>535</v>
+        <v>575</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -7740,7 +7872,7 @@
         <v>297</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>536</v>
+        <v>576</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -7749,7 +7881,7 @@
         <v>12100</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>537</v>
+        <v>577</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>242</v>
@@ -7770,13 +7902,13 @@
         <v>15706</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>538</v>
+        <v>578</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>539</v>
+        <v>421</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>540</v>
+        <v>579</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -7785,13 +7917,13 @@
         <v>7834</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>541</v>
+        <v>580</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>542</v>
+        <v>581</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>543</v>
+        <v>582</v>
       </c>
       <c r="M29" s="7">
         <v>21</v>
@@ -7803,10 +7935,10 @@
         <v>163</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>544</v>
+        <v>583</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>545</v>
+        <v>584</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7821,13 +7953,13 @@
         <v>29496</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>546</v>
+        <v>585</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>547</v>
+        <v>586</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>548</v>
+        <v>587</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -7836,13 +7968,13 @@
         <v>17766</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>549</v>
+        <v>588</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>550</v>
+        <v>589</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>551</v>
+        <v>590</v>
       </c>
       <c r="M30" s="7">
         <v>47</v>
@@ -7851,10 +7983,10 @@
         <v>47262</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>552</v>
+        <v>591</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>553</v>
+        <v>592</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>383</v>
@@ -7872,13 +8004,13 @@
         <v>34789</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>554</v>
+        <v>593</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>555</v>
+        <v>594</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>556</v>
+        <v>595</v>
       </c>
       <c r="H31" s="7">
         <v>33</v>
@@ -7887,13 +8019,13 @@
         <v>34067</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>557</v>
+        <v>596</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>558</v>
+        <v>597</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>559</v>
+        <v>598</v>
       </c>
       <c r="M31" s="7">
         <v>65</v>
@@ -7902,13 +8034,13 @@
         <v>68856</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>560</v>
+        <v>599</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>561</v>
+        <v>600</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>562</v>
+        <v>601</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7923,13 +8055,13 @@
         <v>123587</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>563</v>
+        <v>602</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>564</v>
+        <v>603</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>565</v>
+        <v>604</v>
       </c>
       <c r="H32" s="7">
         <v>150</v>
@@ -7938,13 +8070,13 @@
         <v>156862</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>566</v>
+        <v>605</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>567</v>
+        <v>606</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>568</v>
+        <v>607</v>
       </c>
       <c r="M32" s="7">
         <v>264</v>
@@ -7953,13 +8085,13 @@
         <v>280450</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>569</v>
+        <v>608</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>570</v>
+        <v>609</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>571</v>
+        <v>610</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8027,13 +8159,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>572</v>
+        <v>611</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>573</v>
+        <v>612</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -8042,10 +8174,10 @@
         <v>3826</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>574</v>
+        <v>613</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>575</v>
+        <v>614</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>288</v>
@@ -8057,10 +8189,10 @@
         <v>3826</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>576</v>
+        <v>615</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>577</v>
+        <v>616</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>18</v>
@@ -8078,13 +8210,13 @@
         <v>3705</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>578</v>
+        <v>617</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>575</v>
+        <v>614</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>579</v>
+        <v>618</v>
       </c>
       <c r="H35" s="7">
         <v>6</v>
@@ -8093,13 +8225,13 @@
         <v>5815</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>580</v>
+        <v>619</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>581</v>
+        <v>620</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>582</v>
+        <v>621</v>
       </c>
       <c r="M35" s="7">
         <v>10</v>
@@ -8108,13 +8240,13 @@
         <v>9520</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>583</v>
+        <v>622</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>63</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>584</v>
+        <v>623</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8129,13 +8261,13 @@
         <v>25751</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>475</v>
+        <v>516</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>586</v>
+        <v>625</v>
       </c>
       <c r="H36" s="7">
         <v>18</v>
@@ -8144,13 +8276,13 @@
         <v>20826</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>506</v>
+        <v>627</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="M36" s="7">
         <v>44</v>
@@ -8159,13 +8291,13 @@
         <v>46577</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>589</v>
+        <v>629</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>591</v>
+        <v>631</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8180,13 +8312,13 @@
         <v>41843</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>592</v>
+        <v>632</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>593</v>
+        <v>633</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>594</v>
+        <v>634</v>
       </c>
       <c r="H37" s="7">
         <v>24</v>
@@ -8195,13 +8327,13 @@
         <v>24776</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>595</v>
+        <v>635</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>596</v>
+        <v>636</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="M37" s="7">
         <v>63</v>
@@ -8210,13 +8342,13 @@
         <v>66619</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>598</v>
+        <v>638</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>600</v>
+        <v>640</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8231,13 +8363,13 @@
         <v>201723</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>601</v>
+        <v>641</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>602</v>
+        <v>642</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
       <c r="H38" s="7">
         <v>216</v>
@@ -8246,13 +8378,13 @@
         <v>223701</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>604</v>
+        <v>569</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>605</v>
+        <v>644</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
       <c r="M38" s="7">
         <v>407</v>
@@ -8261,13 +8393,13 @@
         <v>425424</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8335,10 +8467,10 @@
         <v>3685</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>242</v>
@@ -8350,13 +8482,13 @@
         <v>8652</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>611</v>
+        <v>650</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>120</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>612</v>
+        <v>651</v>
       </c>
       <c r="M40" s="7">
         <v>11</v>
@@ -8368,10 +8500,10 @@
         <v>110</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>613</v>
+        <v>652</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>614</v>
+        <v>653</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8389,10 +8521,10 @@
         <v>253</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>615</v>
+        <v>654</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>414</v>
+        <v>455</v>
       </c>
       <c r="H41" s="7">
         <v>20</v>
@@ -8401,13 +8533,13 @@
         <v>24691</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>541</v>
+        <v>580</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>616</v>
+        <v>655</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>617</v>
+        <v>656</v>
       </c>
       <c r="M41" s="7">
         <v>32</v>
@@ -8416,13 +8548,13 @@
         <v>35985</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>618</v>
+        <v>657</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>295</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>619</v>
+        <v>658</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8437,13 +8569,13 @@
         <v>82771</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>620</v>
+        <v>659</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>621</v>
+        <v>660</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>622</v>
+        <v>661</v>
       </c>
       <c r="H42" s="7">
         <v>49</v>
@@ -8455,10 +8587,10 @@
         <v>71</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>624</v>
+        <v>663</v>
       </c>
       <c r="M42" s="7">
         <v>127</v>
@@ -8467,13 +8599,13 @@
         <v>134190</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>626</v>
+        <v>665</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>627</v>
+        <v>666</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8488,13 +8620,13 @@
         <v>178381</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>628</v>
+        <v>667</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>629</v>
+        <v>668</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>630</v>
+        <v>669</v>
       </c>
       <c r="H43" s="7">
         <v>119</v>
@@ -8503,13 +8635,13 @@
         <v>131777</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>631</v>
+        <v>670</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>632</v>
+        <v>671</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>633</v>
+        <v>672</v>
       </c>
       <c r="M43" s="7">
         <v>284</v>
@@ -8518,10 +8650,10 @@
         <v>310157</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>634</v>
+        <v>673</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>635</v>
+        <v>674</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>137</v>
@@ -8539,13 +8671,13 @@
         <v>383594</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>636</v>
+        <v>675</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>637</v>
+        <v>676</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>638</v>
+        <v>677</v>
       </c>
       <c r="H44" s="7">
         <v>439</v>
@@ -8554,13 +8686,13 @@
         <v>474290</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>639</v>
+        <v>678</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>640</v>
+        <v>679</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>641</v>
+        <v>680</v>
       </c>
       <c r="M44" s="7">
         <v>795</v>
@@ -8569,13 +8701,13 @@
         <v>857884</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>642</v>
+        <v>681</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>643</v>
+        <v>682</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>644</v>
+        <v>683</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8643,13 +8775,13 @@
         <v>13000</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>645</v>
+        <v>684</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>646</v>
+        <v>685</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -8658,13 +8790,13 @@
         <v>4141</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>647</v>
+        <v>538</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>648</v>
+        <v>686</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>649</v>
+        <v>687</v>
       </c>
       <c r="M46" s="7">
         <v>16</v>
@@ -8673,13 +8805,13 @@
         <v>17141</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>650</v>
+        <v>688</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>651</v>
+        <v>689</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>614</v>
+        <v>653</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8697,10 +8829,10 @@
         <v>293</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>652</v>
+        <v>690</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>653</v>
+        <v>691</v>
       </c>
       <c r="H47" s="7">
         <v>18</v>
@@ -8709,13 +8841,13 @@
         <v>20661</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>654</v>
+        <v>692</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>655</v>
+        <v>693</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>656</v>
+        <v>694</v>
       </c>
       <c r="M47" s="7">
         <v>33</v>
@@ -8724,13 +8856,13 @@
         <v>37270</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>457</v>
+        <v>498</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>657</v>
+        <v>695</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>658</v>
+        <v>696</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -8745,13 +8877,13 @@
         <v>103033</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>659</v>
+        <v>697</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>660</v>
+        <v>698</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
       <c r="H48" s="7">
         <v>79</v>
@@ -8760,13 +8892,13 @@
         <v>86685</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>662</v>
+        <v>700</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>663</v>
+        <v>701</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>664</v>
+        <v>702</v>
       </c>
       <c r="M48" s="7">
         <v>175</v>
@@ -8775,13 +8907,13 @@
         <v>189718</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>665</v>
+        <v>703</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>666</v>
+        <v>704</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>667</v>
+        <v>705</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -8796,13 +8928,13 @@
         <v>269032</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>668</v>
+        <v>706</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>669</v>
+        <v>707</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>670</v>
+        <v>708</v>
       </c>
       <c r="H49" s="7">
         <v>242</v>
@@ -8811,13 +8943,13 @@
         <v>259380</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>671</v>
+        <v>709</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>672</v>
+        <v>710</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>673</v>
+        <v>711</v>
       </c>
       <c r="M49" s="7">
         <v>494</v>
@@ -8826,13 +8958,13 @@
         <v>528412</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>674</v>
+        <v>712</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>675</v>
+        <v>713</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>676</v>
+        <v>714</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -8847,13 +8979,13 @@
         <v>377425</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>677</v>
+        <v>715</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>678</v>
+        <v>716</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>679</v>
+        <v>717</v>
       </c>
       <c r="H50" s="7">
         <v>415</v>
@@ -8862,13 +8994,13 @@
         <v>452985</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>680</v>
+        <v>718</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>681</v>
+        <v>719</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>682</v>
+        <v>720</v>
       </c>
       <c r="M50" s="7">
         <v>756</v>
@@ -8877,13 +9009,13 @@
         <v>830410</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>683</v>
+        <v>721</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>684</v>
+        <v>722</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>685</v>
+        <v>723</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8951,13 +9083,13 @@
         <v>74743</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>616</v>
+        <v>655</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>686</v>
+        <v>724</v>
       </c>
       <c r="H52" s="7">
         <v>61</v>
@@ -8966,13 +9098,13 @@
         <v>67432</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>687</v>
+        <v>540</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>688</v>
+        <v>725</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>689</v>
+        <v>726</v>
       </c>
       <c r="M52" s="7">
         <v>134</v>
@@ -8987,7 +9119,7 @@
         <v>253</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>689</v>
+        <v>726</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -9002,13 +9134,13 @@
         <v>108755</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>690</v>
+        <v>727</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>691</v>
+        <v>728</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>656</v>
+        <v>694</v>
       </c>
       <c r="H53" s="7">
         <v>86</v>
@@ -9017,13 +9149,13 @@
         <v>95464</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>692</v>
+        <v>729</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>298</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>693</v>
+        <v>730</v>
       </c>
       <c r="M53" s="7">
         <v>190</v>
@@ -9035,10 +9167,10 @@
         <v>17</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>654</v>
+        <v>692</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>658</v>
+        <v>696</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -9053,13 +9185,13 @@
         <v>383938</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>694</v>
+        <v>731</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>695</v>
+        <v>732</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>696</v>
+        <v>733</v>
       </c>
       <c r="H54" s="7">
         <v>255</v>
@@ -9068,13 +9200,13 @@
         <v>272217</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>697</v>
+        <v>734</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>699</v>
+        <v>736</v>
       </c>
       <c r="M54" s="7">
         <v>623</v>
@@ -9083,13 +9215,13 @@
         <v>656155</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>700</v>
+        <v>737</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>701</v>
+        <v>738</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>702</v>
+        <v>739</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -9104,13 +9236,13 @@
         <v>811341</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>703</v>
+        <v>740</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>704</v>
+        <v>741</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>445</v>
+        <v>486</v>
       </c>
       <c r="H55" s="7">
         <v>646</v>
@@ -9119,13 +9251,13 @@
         <v>704059</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>705</v>
+        <v>742</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>706</v>
+        <v>743</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>707</v>
+        <v>744</v>
       </c>
       <c r="M55" s="7">
         <v>1405</v>
@@ -9134,13 +9266,13 @@
         <v>1515400</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>708</v>
+        <v>745</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>709</v>
+        <v>746</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>710</v>
+        <v>747</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -9155,13 +9287,13 @@
         <v>2042940</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>711</v>
+        <v>748</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>712</v>
+        <v>749</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>713</v>
+        <v>750</v>
       </c>
       <c r="H56" s="7">
         <v>2244</v>
@@ -9170,13 +9302,13 @@
         <v>2411801</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>714</v>
+        <v>751</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>715</v>
+        <v>752</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>716</v>
+        <v>753</v>
       </c>
       <c r="M56" s="7">
         <v>4144</v>
@@ -9185,13 +9317,13 @@
         <v>4454740</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>717</v>
+        <v>754</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>718</v>
+        <v>755</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>719</v>
+        <v>756</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -9271,7 +9403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7214D817-04E7-41FA-AC83-C35C8DF161AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94874A3B-C0C6-466C-9707-D77433936292}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9288,7 +9420,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>720</v>
+        <v>757</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9395,13 +9527,13 @@
         <v>14479</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>550</v>
+        <v>589</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>721</v>
+        <v>758</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>722</v>
+        <v>759</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -9410,13 +9542,13 @@
         <v>8522</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>464</v>
+        <v>505</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>198</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>723</v>
+        <v>760</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -9425,13 +9557,13 @@
         <v>23002</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>724</v>
+        <v>761</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>725</v>
+        <v>762</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>726</v>
+        <v>763</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9446,7 +9578,7 @@
         <v>12783</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>727</v>
+        <v>764</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>368</v>
@@ -9461,13 +9593,13 @@
         <v>13183</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>725</v>
+        <v>762</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>728</v>
+        <v>765</v>
       </c>
       <c r="M5" s="7">
         <v>25</v>
@@ -9476,13 +9608,13 @@
         <v>25966</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>729</v>
+        <v>766</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>466</v>
+        <v>507</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>730</v>
+        <v>767</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9497,13 +9629,13 @@
         <v>42227</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>731</v>
+        <v>768</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>732</v>
+        <v>769</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>733</v>
+        <v>770</v>
       </c>
       <c r="H6" s="7">
         <v>33</v>
@@ -9512,10 +9644,10 @@
         <v>33746</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>734</v>
+        <v>771</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>735</v>
+        <v>772</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>81</v>
@@ -9527,13 +9659,13 @@
         <v>75973</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>736</v>
+        <v>773</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>737</v>
+        <v>774</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>738</v>
+        <v>775</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9548,13 +9680,13 @@
         <v>64600</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>739</v>
+        <v>776</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>740</v>
+        <v>777</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>741</v>
+        <v>778</v>
       </c>
       <c r="H7" s="7">
         <v>52</v>
@@ -9563,13 +9695,13 @@
         <v>52216</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>742</v>
+        <v>779</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>743</v>
+        <v>780</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>744</v>
+        <v>781</v>
       </c>
       <c r="M7" s="7">
         <v>113</v>
@@ -9578,13 +9710,13 @@
         <v>116816</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>745</v>
+        <v>782</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>746</v>
+        <v>559</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>747</v>
+        <v>783</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9599,13 +9731,13 @@
         <v>157639</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>748</v>
+        <v>784</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>749</v>
+        <v>785</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>750</v>
+        <v>786</v>
       </c>
       <c r="H8" s="7">
         <v>170</v>
@@ -9614,13 +9746,13 @@
         <v>181036</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>751</v>
+        <v>787</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>145</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>752</v>
+        <v>788</v>
       </c>
       <c r="M8" s="7">
         <v>312</v>
@@ -9629,13 +9761,13 @@
         <v>338674</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>753</v>
+        <v>789</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>150</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>754</v>
+        <v>790</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9703,13 +9835,13 @@
         <v>6335</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>755</v>
+        <v>791</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>756</v>
+        <v>792</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>537</v>
+        <v>577</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -9721,7 +9853,7 @@
         <v>159</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>757</v>
+        <v>793</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>253</v>
@@ -9736,10 +9868,10 @@
         <v>110</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>758</v>
+        <v>794</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>542</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9760,7 +9892,7 @@
         <v>107</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>759</v>
+        <v>795</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -9772,10 +9904,10 @@
         <v>253</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>760</v>
+        <v>796</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>761</v>
+        <v>797</v>
       </c>
       <c r="M11" s="7">
         <v>24</v>
@@ -9784,13 +9916,13 @@
         <v>24676</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>689</v>
+        <v>726</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>655</v>
+        <v>693</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>653</v>
+        <v>691</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9805,13 +9937,13 @@
         <v>50330</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>762</v>
+        <v>798</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>763</v>
+        <v>799</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>764</v>
+        <v>800</v>
       </c>
       <c r="H12" s="7">
         <v>31</v>
@@ -9820,13 +9952,13 @@
         <v>32549</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>765</v>
+        <v>801</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>427</v>
+        <v>468</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>766</v>
+        <v>802</v>
       </c>
       <c r="M12" s="7">
         <v>79</v>
@@ -9835,13 +9967,13 @@
         <v>82879</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>767</v>
+        <v>803</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>768</v>
+        <v>804</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>769</v>
+        <v>805</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9856,13 +9988,13 @@
         <v>175841</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>770</v>
+        <v>806</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>771</v>
+        <v>807</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>772</v>
+        <v>808</v>
       </c>
       <c r="H13" s="7">
         <v>169</v>
@@ -9871,13 +10003,13 @@
         <v>180860</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>773</v>
+        <v>809</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>774</v>
+        <v>810</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>775</v>
+        <v>811</v>
       </c>
       <c r="M13" s="7">
         <v>337</v>
@@ -9886,13 +10018,13 @@
         <v>356701</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>776</v>
+        <v>812</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>777</v>
+        <v>813</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>778</v>
+        <v>814</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9907,13 +10039,13 @@
         <v>254341</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>779</v>
+        <v>815</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>780</v>
+        <v>816</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>781</v>
+        <v>817</v>
       </c>
       <c r="H14" s="7">
         <v>272</v>
@@ -9922,13 +10054,13 @@
         <v>297752</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>782</v>
+        <v>818</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>783</v>
+        <v>819</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>784</v>
+        <v>820</v>
       </c>
       <c r="M14" s="7">
         <v>510</v>
@@ -10014,10 +10146,10 @@
         <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>785</v>
+        <v>821</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>786</v>
+        <v>822</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -10026,10 +10158,10 @@
         <v>3761</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>787</v>
+        <v>823</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>454</v>
+        <v>495</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>117</v>
@@ -10041,13 +10173,13 @@
         <v>9296</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>788</v>
+        <v>824</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>789</v>
+        <v>825</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>457</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -10062,13 +10194,13 @@
         <v>10288</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>614</v>
+        <v>653</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>791</v>
+        <v>827</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -10077,13 +10209,13 @@
         <v>8475</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>792</v>
+        <v>828</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>787</v>
+        <v>823</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>759</v>
+        <v>795</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -10098,7 +10230,7 @@
         <v>291</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>432</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -10113,13 +10245,13 @@
         <v>36137</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>793</v>
+        <v>829</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>794</v>
+        <v>830</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>795</v>
+        <v>831</v>
       </c>
       <c r="H18" s="7">
         <v>33</v>
@@ -10128,13 +10260,13 @@
         <v>31887</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>796</v>
+        <v>832</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>543</v>
+        <v>582</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>797</v>
+        <v>833</v>
       </c>
       <c r="M18" s="7">
         <v>70</v>
@@ -10143,13 +10275,13 @@
         <v>68024</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>798</v>
+        <v>834</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>545</v>
+        <v>584</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>799</v>
+        <v>835</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -10164,13 +10296,13 @@
         <v>113724</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>800</v>
+        <v>836</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>801</v>
+        <v>837</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>802</v>
+        <v>838</v>
       </c>
       <c r="H19" s="7">
         <v>107</v>
@@ -10179,13 +10311,13 @@
         <v>103765</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>803</v>
+        <v>839</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>804</v>
+        <v>840</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>805</v>
+        <v>841</v>
       </c>
       <c r="M19" s="7">
         <v>225</v>
@@ -10194,13 +10326,13 @@
         <v>217490</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>806</v>
+        <v>842</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>807</v>
+        <v>843</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>808</v>
+        <v>844</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10215,13 +10347,13 @@
         <v>152881</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>809</v>
+        <v>845</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>810</v>
+        <v>846</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>811</v>
+        <v>847</v>
       </c>
       <c r="H20" s="7">
         <v>180</v>
@@ -10230,13 +10362,13 @@
         <v>188421</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>812</v>
+        <v>848</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>813</v>
+        <v>849</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>814</v>
+        <v>850</v>
       </c>
       <c r="M20" s="7">
         <v>343</v>
@@ -10245,13 +10377,13 @@
         <v>341302</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>815</v>
+        <v>851</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>816</v>
+        <v>852</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>817</v>
+        <v>853</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10319,13 +10451,13 @@
         <v>9887</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>818</v>
+        <v>854</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>819</v>
+        <v>855</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>820</v>
+        <v>856</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -10334,10 +10466,10 @@
         <v>13519</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>653</v>
+        <v>691</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>821</v>
+        <v>857</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>254</v>
@@ -10349,13 +10481,13 @@
         <v>23406</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>822</v>
+        <v>858</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>823</v>
+        <v>859</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>425</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10370,13 +10502,13 @@
         <v>17607</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>824</v>
+        <v>860</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>537</v>
+        <v>577</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>825</v>
+        <v>861</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -10385,13 +10517,13 @@
         <v>9382</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>826</v>
+        <v>862</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>819</v>
+        <v>855</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>539</v>
+        <v>421</v>
       </c>
       <c r="M23" s="7">
         <v>26</v>
@@ -10403,10 +10535,10 @@
         <v>244</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>457</v>
+        <v>498</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>827</v>
+        <v>863</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10421,13 +10553,13 @@
         <v>46561</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>828</v>
+        <v>864</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>829</v>
+        <v>865</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>830</v>
+        <v>866</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -10436,13 +10568,13 @@
         <v>31478</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>831</v>
+        <v>867</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>209</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>832</v>
+        <v>868</v>
       </c>
       <c r="M24" s="7">
         <v>73</v>
@@ -10451,13 +10583,13 @@
         <v>78039</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>833</v>
+        <v>869</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>118</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>834</v>
+        <v>870</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10475,10 +10607,10 @@
         <v>130</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>835</v>
+        <v>871</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>836</v>
+        <v>872</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -10487,13 +10619,13 @@
         <v>41090</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>837</v>
+        <v>873</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>763</v>
+        <v>799</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>838</v>
+        <v>874</v>
       </c>
       <c r="M25" s="7">
         <v>79</v>
@@ -10502,13 +10634,13 @@
         <v>81646</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>839</v>
+        <v>875</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>840</v>
+        <v>876</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>841</v>
+        <v>877</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10523,13 +10655,13 @@
         <v>255353</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>842</v>
+        <v>878</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>843</v>
+        <v>879</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>844</v>
+        <v>880</v>
       </c>
       <c r="H26" s="7">
         <v>268</v>
@@ -10538,13 +10670,13 @@
         <v>291814</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>845</v>
+        <v>881</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>846</v>
+        <v>882</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>847</v>
+        <v>883</v>
       </c>
       <c r="M26" s="7">
         <v>513</v>
@@ -10553,13 +10685,13 @@
         <v>547167</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>848</v>
+        <v>884</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>849</v>
+        <v>885</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>850</v>
+        <v>886</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10630,10 +10762,10 @@
         <v>297</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>851</v>
+        <v>887</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -10645,10 +10777,10 @@
         <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>721</v>
+        <v>758</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -10657,10 +10789,10 @@
         <v>2088</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>613</v>
+        <v>652</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>333</v>
@@ -10678,13 +10810,13 @@
         <v>1598</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>852</v>
+        <v>888</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>853</v>
+        <v>889</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -10693,13 +10825,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>572</v>
+        <v>611</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>615</v>
+        <v>654</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -10708,13 +10840,13 @@
         <v>1598</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>854</v>
+        <v>890</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>855</v>
+        <v>891</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10729,13 +10861,13 @@
         <v>15656</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>856</v>
+        <v>418</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>857</v>
+        <v>892</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>858</v>
+        <v>893</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -10759,13 +10891,13 @@
         <v>27563</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>859</v>
+        <v>894</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>729</v>
+        <v>766</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>860</v>
+        <v>895</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10780,13 +10912,13 @@
         <v>72407</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>861</v>
+        <v>896</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>862</v>
+        <v>897</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>863</v>
+        <v>898</v>
       </c>
       <c r="H31" s="7">
         <v>69</v>
@@ -10795,13 +10927,13 @@
         <v>66506</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>864</v>
+        <v>899</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>865</v>
+        <v>900</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>866</v>
+        <v>901</v>
       </c>
       <c r="M31" s="7">
         <v>141</v>
@@ -10810,13 +10942,13 @@
         <v>138914</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>867</v>
+        <v>902</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>868</v>
+        <v>903</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>869</v>
+        <v>904</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10831,13 +10963,13 @@
         <v>120603</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>870</v>
+        <v>905</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>871</v>
+        <v>906</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>872</v>
+        <v>907</v>
       </c>
       <c r="H32" s="7">
         <v>141</v>
@@ -10846,13 +10978,13 @@
         <v>139042</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>873</v>
+        <v>908</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>874</v>
+        <v>909</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>875</v>
+        <v>910</v>
       </c>
       <c r="M32" s="7">
         <v>263</v>
@@ -10861,13 +10993,13 @@
         <v>259645</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>876</v>
+        <v>911</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>877</v>
+        <v>912</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>878</v>
+        <v>913</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10935,13 +11067,13 @@
         <v>16999</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>879</v>
+        <v>430</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>880</v>
+        <v>914</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>881</v>
+        <v>915</v>
       </c>
       <c r="H34" s="7">
         <v>16</v>
@@ -10950,13 +11082,13 @@
         <v>15229</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>882</v>
+        <v>916</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>883</v>
+        <v>917</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>884</v>
+        <v>918</v>
       </c>
       <c r="M34" s="7">
         <v>32</v>
@@ -10965,13 +11097,13 @@
         <v>32228</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>596</v>
+        <v>636</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>885</v>
+        <v>919</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>886</v>
+        <v>920</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10986,13 +11118,13 @@
         <v>23382</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>887</v>
+        <v>921</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>888</v>
+        <v>922</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>889</v>
+        <v>923</v>
       </c>
       <c r="H35" s="7">
         <v>21</v>
@@ -11001,13 +11133,13 @@
         <v>22192</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>428</v>
+        <v>469</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>890</v>
+        <v>924</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>891</v>
+        <v>925</v>
       </c>
       <c r="M35" s="7">
         <v>44</v>
@@ -11016,13 +11148,13 @@
         <v>45574</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>514</v>
+        <v>926</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>892</v>
+        <v>927</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>893</v>
+        <v>928</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -11037,13 +11169,13 @@
         <v>61278</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>894</v>
+        <v>563</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>895</v>
+        <v>929</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>896</v>
+        <v>930</v>
       </c>
       <c r="H36" s="7">
         <v>55</v>
@@ -11052,13 +11184,13 @@
         <v>57100</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>559</v>
+        <v>598</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>897</v>
+        <v>931</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>898</v>
+        <v>932</v>
       </c>
       <c r="M36" s="7">
         <v>114</v>
@@ -11067,13 +11199,13 @@
         <v>118378</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>899</v>
+        <v>933</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>900</v>
+        <v>934</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>901</v>
+        <v>935</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11088,13 +11220,13 @@
         <v>70944</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>902</v>
+        <v>936</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>903</v>
+        <v>937</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>904</v>
+        <v>938</v>
       </c>
       <c r="H37" s="7">
         <v>63</v>
@@ -11103,13 +11235,13 @@
         <v>65780</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>905</v>
+        <v>939</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>906</v>
+        <v>940</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>907</v>
+        <v>941</v>
       </c>
       <c r="M37" s="7">
         <v>132</v>
@@ -11118,13 +11250,13 @@
         <v>136724</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>908</v>
+        <v>942</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>909</v>
+        <v>943</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>910</v>
+        <v>944</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11139,13 +11271,13 @@
         <v>90520</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>911</v>
+        <v>945</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>912</v>
+        <v>946</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>913</v>
+        <v>947</v>
       </c>
       <c r="H38" s="7">
         <v>107</v>
@@ -11154,13 +11286,13 @@
         <v>111802</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>914</v>
+        <v>948</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>915</v>
+        <v>949</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>916</v>
+        <v>950</v>
       </c>
       <c r="M38" s="7">
         <v>199</v>
@@ -11169,13 +11301,13 @@
         <v>202322</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>917</v>
+        <v>951</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>185</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>918</v>
+        <v>952</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -11243,13 +11375,13 @@
         <v>23299</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>541</v>
+        <v>580</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>919</v>
+        <v>953</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>920</v>
+        <v>954</v>
       </c>
       <c r="H40" s="7">
         <v>13</v>
@@ -11261,10 +11393,10 @@
         <v>62</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>921</v>
+        <v>955</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>471</v>
+        <v>512</v>
       </c>
       <c r="M40" s="7">
         <v>34</v>
@@ -11273,13 +11405,13 @@
         <v>36810</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>922</v>
+        <v>956</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>821</v>
+        <v>857</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>923</v>
+        <v>546</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11297,10 +11429,10 @@
         <v>374</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>924</v>
+        <v>957</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>925</v>
+        <v>958</v>
       </c>
       <c r="H41" s="7">
         <v>35</v>
@@ -11309,13 +11441,13 @@
         <v>36771</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>926</v>
+        <v>959</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>786</v>
+        <v>822</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>856</v>
+        <v>418</v>
       </c>
       <c r="M41" s="7">
         <v>64</v>
@@ -11324,10 +11456,10 @@
         <v>68755</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>827</v>
+        <v>863</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>927</v>
+        <v>960</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>340</v>
@@ -11345,10 +11477,10 @@
         <v>126000</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>928</v>
+        <v>961</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>929</v>
+        <v>962</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>215</v>
@@ -11360,13 +11492,13 @@
         <v>118924</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>930</v>
+        <v>963</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>931</v>
+        <v>964</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>932</v>
+        <v>965</v>
       </c>
       <c r="M42" s="7">
         <v>220</v>
@@ -11375,13 +11507,13 @@
         <v>244924</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>933</v>
+        <v>966</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>934</v>
+        <v>967</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>935</v>
+        <v>968</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11396,13 +11528,13 @@
         <v>185825</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>936</v>
+        <v>969</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>937</v>
+        <v>970</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>938</v>
+        <v>971</v>
       </c>
       <c r="H43" s="7">
         <v>176</v>
@@ -11411,28 +11543,28 @@
         <v>185698</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>939</v>
+        <v>972</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>940</v>
+        <v>973</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>941</v>
+        <v>974</v>
       </c>
       <c r="M43" s="7">
         <v>342</v>
       </c>
       <c r="N43" s="7">
-        <v>371524</v>
+        <v>371523</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>442</v>
+        <v>483</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>942</v>
+        <v>975</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>943</v>
+        <v>976</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -11447,13 +11579,13 @@
         <v>285669</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>944</v>
+        <v>977</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>945</v>
+        <v>978</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>946</v>
+        <v>979</v>
       </c>
       <c r="H44" s="7">
         <v>307</v>
@@ -11462,28 +11594,28 @@
         <v>335278</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>947</v>
+        <v>980</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>948</v>
+        <v>981</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>949</v>
+        <v>982</v>
       </c>
       <c r="M44" s="7">
         <v>562</v>
       </c>
       <c r="N44" s="7">
-        <v>620948</v>
+        <v>620947</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>950</v>
+        <v>983</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>951</v>
+        <v>984</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>952</v>
+        <v>985</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11525,7 +11657,7 @@
         <v>1222</v>
       </c>
       <c r="N45" s="7">
-        <v>1342960</v>
+        <v>1342959</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>60</v>
@@ -11551,13 +11683,13 @@
         <v>9019</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>461</v>
+        <v>502</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>165</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>953</v>
+        <v>986</v>
       </c>
       <c r="H46" s="7">
         <v>12</v>
@@ -11566,10 +11698,10 @@
         <v>12852</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>954</v>
+        <v>987</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>955</v>
+        <v>988</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>210</v>
@@ -11581,13 +11713,13 @@
         <v>21871</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>574</v>
+        <v>613</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>456</v>
+        <v>497</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>956</v>
+        <v>989</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -11602,13 +11734,13 @@
         <v>16072</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>534</v>
+        <v>574</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>652</v>
+        <v>690</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>500</v>
+        <v>990</v>
       </c>
       <c r="H47" s="7">
         <v>15</v>
@@ -11620,10 +11752,10 @@
         <v>62</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>461</v>
+        <v>502</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>495</v>
+        <v>991</v>
       </c>
       <c r="M47" s="7">
         <v>29</v>
@@ -11635,10 +11767,10 @@
         <v>123</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>578</v>
+        <v>617</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>957</v>
+        <v>992</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -11653,13 +11785,13 @@
         <v>82103</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>958</v>
+        <v>437</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>959</v>
+        <v>993</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>960</v>
+        <v>994</v>
       </c>
       <c r="H48" s="7">
         <v>78</v>
@@ -11668,13 +11800,13 @@
         <v>83757</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>666</v>
+        <v>704</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>961</v>
+        <v>995</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>620</v>
+        <v>659</v>
       </c>
       <c r="M48" s="7">
         <v>158</v>
@@ -11683,13 +11815,13 @@
         <v>165860</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>962</v>
+        <v>996</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>963</v>
+        <v>997</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>964</v>
+        <v>998</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -11704,13 +11836,13 @@
         <v>282861</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>965</v>
+        <v>999</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>966</v>
+        <v>1000</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>967</v>
+        <v>1001</v>
       </c>
       <c r="H49" s="7">
         <v>262</v>
@@ -11719,13 +11851,13 @@
         <v>280177</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>968</v>
+        <v>1002</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>969</v>
+        <v>1003</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>970</v>
+        <v>1004</v>
       </c>
       <c r="M49" s="7">
         <v>537</v>
@@ -11734,13 +11866,13 @@
         <v>563038</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>971</v>
+        <v>1005</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>972</v>
+        <v>1006</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>973</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -11755,13 +11887,13 @@
         <v>387541</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>974</v>
+        <v>1008</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>975</v>
+        <v>1009</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>976</v>
+        <v>1010</v>
       </c>
       <c r="H50" s="7">
         <v>385</v>
@@ -11770,13 +11902,13 @@
         <v>429552</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>977</v>
+        <v>1011</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>978</v>
+        <v>1012</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>979</v>
+        <v>1013</v>
       </c>
       <c r="M50" s="7">
         <v>756</v>
@@ -11785,13 +11917,13 @@
         <v>817093</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>980</v>
+        <v>1014</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>981</v>
+        <v>1015</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>982</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -11859,13 +11991,13 @@
         <v>86511</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>725</v>
+        <v>762</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>953</v>
+        <v>986</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>690</v>
+        <v>727</v>
       </c>
       <c r="H52" s="7">
         <v>70</v>
@@ -11874,13 +12006,13 @@
         <v>71497</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>983</v>
+        <v>545</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>984</v>
+        <v>1017</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>792</v>
+        <v>828</v>
       </c>
       <c r="M52" s="7">
         <v>150</v>
@@ -11889,13 +12021,13 @@
         <v>158009</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>985</v>
+        <v>1018</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>986</v>
+        <v>1019</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>618</v>
+        <v>657</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -11910,13 +12042,13 @@
         <v>129441</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>786</v>
+        <v>822</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>690</v>
+        <v>727</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>987</v>
+        <v>1020</v>
       </c>
       <c r="H53" s="7">
         <v>111</v>
@@ -11928,10 +12060,10 @@
         <v>252</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>988</v>
+        <v>1021</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>989</v>
+        <v>1022</v>
       </c>
       <c r="M53" s="7">
         <v>232</v>
@@ -11940,10 +12072,10 @@
         <v>244517</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>990</v>
+        <v>1023</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>991</v>
+        <v>547</v>
       </c>
       <c r="Q53" s="7" t="s">
         <v>378</v>
@@ -11961,13 +12093,13 @@
         <v>460293</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>992</v>
+        <v>1024</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>993</v>
+        <v>1025</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>994</v>
+        <v>1026</v>
       </c>
       <c r="H54" s="7">
         <v>386</v>
@@ -11976,13 +12108,13 @@
         <v>401349</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>793</v>
+        <v>829</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>995</v>
+        <v>1027</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>996</v>
+        <v>1028</v>
       </c>
       <c r="M54" s="7">
         <v>812</v>
@@ -11991,13 +12123,13 @@
         <v>861642</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>997</v>
+        <v>1029</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>998</v>
+        <v>1030</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>999</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -12012,13 +12144,13 @@
         <v>1006760</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>1000</v>
+        <v>1032</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>1001</v>
+        <v>1033</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>1002</v>
+        <v>1034</v>
       </c>
       <c r="H55" s="7">
         <v>936</v>
@@ -12027,13 +12159,13 @@
         <v>976093</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>1003</v>
+        <v>1035</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>1004</v>
+        <v>1036</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>1005</v>
+        <v>1037</v>
       </c>
       <c r="M55" s="7">
         <v>1906</v>
@@ -12042,13 +12174,13 @@
         <v>1982852</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>1006</v>
+        <v>1038</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>1007</v>
+        <v>1039</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>1000</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -12063,13 +12195,13 @@
         <v>1704546</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>1008</v>
+        <v>1040</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>1009</v>
+        <v>1041</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>949</v>
+        <v>982</v>
       </c>
       <c r="H56" s="7">
         <v>1830</v>
@@ -12078,13 +12210,13 @@
         <v>1974697</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>1010</v>
+        <v>1042</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>1011</v>
+        <v>1043</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>1012</v>
+        <v>1044</v>
       </c>
       <c r="M56" s="7">
         <v>3458</v>
@@ -12096,10 +12228,10 @@
         <v>367</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>1013</v>
+        <v>1045</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>811</v>
+        <v>847</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
